--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\copy2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\downloads\record\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4D271A8-7D34-4072-9516-3B2ABDE7134E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCBB812A-EADB-42A8-BEE5-C02A13DD448A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{3DAEDE8E-3C2F-4715-BEC9-B57BDCFCB53C}"/>
   </bookViews>
@@ -36,9 +36,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
   <si>
-    <t>/var/www/html/wordpress</t>
-  </si>
-  <si>
     <t>/var/www/html/ninjatech</t>
   </si>
   <si>
@@ -60,13 +57,16 @@
     <t>/var/www/html/record/ninjatech.png</t>
   </si>
   <si>
-    <t>/var/www/html/record/technome.png</t>
-  </si>
-  <si>
     <t>/var/www/html/record/techworld.png</t>
   </si>
   <si>
     <t>/var/www/html/record/techgiants.png</t>
+  </si>
+  <si>
+    <t>/var/www/html/pseo</t>
+  </si>
+  <si>
+    <t>/var/www/html/record/techome.png</t>
   </si>
 </sst>
 </file>
@@ -421,7 +421,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -433,57 +433,57 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
       <c r="C1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
